--- a/documenten/kerntaak_1/1.4/modeldictionary/modeldictionary_0.1.xlsx
+++ b/documenten/kerntaak_1/1.4/modeldictionary/modeldictionary_0.1.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
